--- a/doc/completion/CombinedTest/800系_結合テストデシジョンテーブル.xlsx
+++ b/doc/completion/CombinedTest/800系_結合テストデシジョンテーブル.xlsx
@@ -13,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="120">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -562,10 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hotel.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>購入可能商品である</t>
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
@@ -609,10 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +647,22 @@
     <rPh sb="5" eb="7">
       <t>ケツゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotelMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelDetail.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1232,11 +1239,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,18 +1404,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1391,9 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1405,127 +1456,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1534,6 +1523,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1549,34 +1661,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,116 +2016,116 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="85">
         <v>1</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="66">
         <v>2</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="66">
         <v>3</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="66">
         <v>4</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="66">
         <v>4</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="66">
         <v>5</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="66">
         <v>5</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="66">
         <v>6</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="66">
         <v>7</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="66">
         <v>8</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="66">
         <v>9</v>
       </c>
-      <c r="P2" s="85">
+      <c r="P2" s="66">
         <v>9</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="66">
         <v>9</v>
       </c>
-      <c r="R2" s="85">
+      <c r="R2" s="66">
         <v>10</v>
       </c>
-      <c r="S2" s="85">
+      <c r="S2" s="66">
         <v>11</v>
       </c>
-      <c r="T2" s="85">
+      <c r="T2" s="66">
         <v>12</v>
       </c>
-      <c r="U2" s="85">
+      <c r="U2" s="66">
         <v>13</v>
       </c>
-      <c r="V2" s="85">
+      <c r="V2" s="66">
         <v>14</v>
       </c>
-      <c r="W2" s="85">
+      <c r="W2" s="66">
         <v>15</v>
       </c>
-      <c r="X2" s="85">
+      <c r="X2" s="66">
         <v>16</v>
       </c>
-      <c r="Y2" s="85">
+      <c r="Y2" s="66">
         <v>17</v>
       </c>
-      <c r="Z2" s="85" t="s">
+      <c r="Z2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="87"/>
+      <c r="AA2" s="81"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="88"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="82"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -2323,542 +2420,542 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="91"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="92"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="71"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="67"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="93"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="102" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="94" t="s">
+      <c r="L12" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="94" t="s">
+      <c r="N12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="94" t="s">
+      <c r="O12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="94" t="s">
+      <c r="P12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="94" t="s">
+      <c r="Q12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="94" t="s">
+      <c r="R12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="94" t="s">
+      <c r="S12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="94" t="s">
+      <c r="T12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="92"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="83"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="70"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="93"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="94"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="70"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="78" t="s">
+      <c r="M14" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="78" t="s">
+      <c r="O14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="78" t="s">
+      <c r="P14" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="78" t="s">
+      <c r="Q14" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="78" t="s">
+      <c r="R14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="78" t="s">
+      <c r="S14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78" t="s">
+      <c r="U14" s="70"/>
+      <c r="V14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="78" t="s">
+      <c r="W14" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="78" t="s">
+      <c r="X14" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="Y14" s="78" t="s">
+      <c r="Y14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="66"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="95"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="71"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="67"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="93"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="102" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="94" t="s">
+      <c r="I16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="94" t="s">
+      <c r="L16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="94" t="s">
+      <c r="M16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="94" t="s">
+      <c r="N16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="94" t="s">
+      <c r="O16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94" t="s">
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="94" t="s">
+      <c r="W16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="92"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="83"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="70"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="93"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="94"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="70"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78" t="s">
+      <c r="E18" s="89"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="78" t="s">
+      <c r="K18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78" t="s">
+      <c r="L18" s="70"/>
+      <c r="M18" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78" t="s">
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="78" t="s">
+      <c r="Q18" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78" t="s">
+      <c r="R18" s="70"/>
+      <c r="S18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78" t="s">
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="78" t="s">
+      <c r="X18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="78" t="s">
+      <c r="Y18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="66"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="95"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="71"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="67"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="93"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="102" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="92"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="98"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="84"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="75" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2906,10 +3003,10 @@
       <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A23" s="100"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2936,6 +3033,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -2960,165 +3216,6 @@
     <mergeCell ref="Z10:Z11"/>
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="U10:U11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,101 +3252,101 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="85">
         <v>1</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="66">
         <v>2</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="66">
         <v>3</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="66">
         <v>4</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="66">
         <v>4</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="66">
         <v>5</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="66">
         <v>5</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="66">
         <v>6</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="66">
         <v>7</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="66">
         <v>8</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="66">
         <v>9</v>
       </c>
-      <c r="P2" s="85">
+      <c r="P2" s="66">
         <v>9</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="66">
         <v>9</v>
       </c>
-      <c r="R2" s="85">
+      <c r="R2" s="66">
         <v>10</v>
       </c>
-      <c r="S2" s="85">
+      <c r="S2" s="66">
         <v>11</v>
       </c>
-      <c r="T2" s="85">
+      <c r="T2" s="66">
         <v>12</v>
       </c>
-      <c r="U2" s="85">
+      <c r="U2" s="66">
         <v>13</v>
       </c>
-      <c r="V2" s="85">
+      <c r="V2" s="66">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3411,358 +3508,358 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="102"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="94" t="s">
+      <c r="K10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="94" t="s">
+      <c r="L10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="94" t="s">
+      <c r="N10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="94" t="s">
+      <c r="O10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="94" t="s">
+      <c r="P10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="94" t="s">
+      <c r="Q10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="94" t="s">
+      <c r="R10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="94" t="s">
+      <c r="S10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="94" t="s">
+      <c r="T10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="94" t="s">
+      <c r="U10" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="94" t="s">
+      <c r="V10" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="107"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="94" t="s">
+      <c r="L12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="94" t="s">
+      <c r="N12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="94" t="s">
+      <c r="O12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94" t="s">
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="107"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="114"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46" t="s">
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="34"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -3784,6 +3881,90 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
@@ -3806,90 +3987,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3899,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3912,107 +4009,71 @@
     <col min="4" max="4" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21.75" thickBot="1">
+    <row r="1" spans="1:13" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="85">
         <v>1</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="66">
         <v>2</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="66">
         <v>3</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="66">
         <v>4</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="66">
         <v>5</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="66">
         <v>6</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="66">
         <v>7</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="66">
         <v>8</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="81">
         <v>9</v>
       </c>
-      <c r="N2" s="85">
-        <v>10</v>
-      </c>
-      <c r="O2" s="85">
-        <v>11</v>
-      </c>
-      <c r="P2" s="85">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="85">
-        <v>13</v>
-      </c>
-      <c r="R2" s="85">
-        <v>14</v>
-      </c>
-      <c r="S2" s="85">
-        <v>11</v>
-      </c>
-      <c r="T2" s="85">
-        <v>12</v>
-      </c>
-      <c r="U2" s="85">
-        <v>13</v>
-      </c>
-      <c r="V2" s="85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="86"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="44" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="82"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4023,103 +4084,76 @@
         <v>32</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="19"/>
       <c r="E5" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-    </row>
-    <row r="7" spans="1:22" ht="14.25" thickBot="1">
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" thickBot="1">
       <c r="A7" s="25"/>
       <c r="B7" s="15"/>
       <c r="C7" s="27"/>
@@ -4132,305 +4166,279 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="106" t="s">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="72"/>
+      <c r="M8" s="124"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="127"/>
+      <c r="B9" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="93"/>
+    </row>
+    <row r="10" spans="1:13" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F10" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="68"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1">
+      <c r="A11" s="126"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="93"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A13" s="126"/>
+      <c r="B13" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="93"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H14" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="115"/>
-      <c r="B9" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-    </row>
-    <row r="10" spans="1:22" s="56" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="115"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="53"/>
-    </row>
-    <row r="11" spans="1:22" s="56" customFormat="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="53"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="53"/>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="53"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="46" t="s">
+      <c r="I14" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="46" t="s">
+      <c r="J14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="58"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="87"/>
+      <c r="B15" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A16" s="108"/>
+      <c r="B16" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
+  <mergeCells count="48">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="F12:F13"/>
@@ -4438,65 +4446,20 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/completion/CombinedTest/800系_結合テストデシジョンテーブル.xlsx
+++ b/doc/completion/CombinedTest/800系_結合テストデシジョンテーブル.xlsx
@@ -561,19 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入可能商品である</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,6 +650,28 @@
   </si>
   <si>
     <t>HotelDetail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊日が翌日以降、6ヶ月以内である</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イナイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1490,31 +1499,127 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1523,107 +1628,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1631,62 +1667,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2016,116 +2025,116 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="91">
         <v>1</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="93">
         <v>2</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="93">
         <v>3</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="93">
         <v>4</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="93">
         <v>4</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="93">
         <v>5</v>
       </c>
-      <c r="K2" s="66">
+      <c r="K2" s="93">
         <v>5</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="93">
         <v>6</v>
       </c>
-      <c r="M2" s="66">
+      <c r="M2" s="93">
         <v>7</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="93">
         <v>8</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="93">
         <v>9</v>
       </c>
-      <c r="P2" s="66">
+      <c r="P2" s="93">
         <v>9</v>
       </c>
-      <c r="Q2" s="66">
+      <c r="Q2" s="93">
         <v>9</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="93">
         <v>10</v>
       </c>
-      <c r="S2" s="66">
+      <c r="S2" s="93">
         <v>11</v>
       </c>
-      <c r="T2" s="66">
+      <c r="T2" s="93">
         <v>12</v>
       </c>
-      <c r="U2" s="66">
+      <c r="U2" s="93">
         <v>13</v>
       </c>
-      <c r="V2" s="66">
+      <c r="V2" s="93">
         <v>14</v>
       </c>
-      <c r="W2" s="66">
+      <c r="W2" s="93">
         <v>15</v>
       </c>
-      <c r="X2" s="66">
+      <c r="X2" s="93">
         <v>16</v>
       </c>
-      <c r="Y2" s="66">
+      <c r="Y2" s="93">
         <v>17</v>
       </c>
-      <c r="Z2" s="66" t="s">
+      <c r="Z2" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="81"/>
+      <c r="AA2" s="95"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="86"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="82"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="96"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -2420,542 +2429,542 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="78" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="92"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="99"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="105"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="93"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="75"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="68" t="s">
+      <c r="P12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="68" t="s">
+      <c r="Q12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="68" t="s">
+      <c r="R12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="68" t="s">
+      <c r="V12" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="83"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="100"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="104"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="94"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="101"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="104"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="O14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="70" t="s">
+      <c r="P14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="70" t="s">
+      <c r="Q14" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="70" t="s">
+      <c r="R14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="70" t="s">
+      <c r="S14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="70" t="s">
+      <c r="T14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70" t="s">
+      <c r="U14" s="86"/>
+      <c r="V14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="70" t="s">
+      <c r="W14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="70" t="s">
+      <c r="X14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="Y14" s="70" t="s">
+      <c r="Y14" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="95"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="74"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="105"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="93"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="75"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="68" t="s">
+      <c r="M16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68" t="s">
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="68" t="s">
+      <c r="W16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="83"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="100"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="104"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="94"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="101"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="104"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70" t="s">
+      <c r="L18" s="86"/>
+      <c r="M18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70" t="s">
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="70" t="s">
+      <c r="Q18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70" t="s">
+      <c r="R18" s="86"/>
+      <c r="S18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="70" t="s">
+      <c r="T18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70" t="s">
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="70" t="s">
+      <c r="X18" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="70" t="s">
+      <c r="Y18" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="95"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="74"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="105"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="93"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="75"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="76" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68" t="s">
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="83"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="100"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A21" s="103"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="84"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="106"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="107" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
@@ -3003,10 +3012,10 @@
       <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A23" s="76"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3033,6 +3042,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C12:C13"/>
@@ -3057,165 +3225,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="U10:U11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3252,98 +3261,98 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="91">
         <v>1</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="93">
         <v>2</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="93">
         <v>3</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="93">
         <v>4</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="93">
         <v>4</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="93">
         <v>5</v>
       </c>
-      <c r="K2" s="66">
+      <c r="K2" s="93">
         <v>5</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="93">
         <v>6</v>
       </c>
-      <c r="M2" s="66">
+      <c r="M2" s="93">
         <v>7</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="93">
         <v>8</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="93">
         <v>9</v>
       </c>
-      <c r="P2" s="66">
+      <c r="P2" s="93">
         <v>9</v>
       </c>
-      <c r="Q2" s="66">
+      <c r="Q2" s="93">
         <v>9</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="93">
         <v>10</v>
       </c>
-      <c r="S2" s="66">
+      <c r="S2" s="93">
         <v>11</v>
       </c>
-      <c r="T2" s="66">
+      <c r="T2" s="93">
         <v>12</v>
       </c>
-      <c r="U2" s="66">
+      <c r="U2" s="93">
         <v>13</v>
       </c>
-      <c r="V2" s="66">
+      <c r="V2" s="93">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="86"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="41" t="s">
@@ -3508,307 +3517,307 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="109" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="119"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="114" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="114" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="N10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="68" t="s">
+      <c r="O10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="68" t="s">
+      <c r="P10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="68" t="s">
+      <c r="Q10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="68" t="s">
+      <c r="R10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="68" t="s">
+      <c r="S10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="68" t="s">
+      <c r="U10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="68" t="s">
+      <c r="V10" s="102" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="110"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="117"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="114" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68" t="s">
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="114" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68" t="s">
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="110"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="107" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -3854,7 +3863,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="35" t="s">
         <v>81</v>
       </c>
@@ -3881,90 +3890,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U14:U15"/>
@@ -3987,6 +3912,90 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,7 +4008,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4011,66 +4020,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="91">
         <v>1</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="93">
         <v>2</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="93">
         <v>3</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="93">
         <v>4</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="93">
         <v>5</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="93">
         <v>6</v>
       </c>
-      <c r="K2" s="66">
+      <c r="K2" s="93">
         <v>7</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="93">
         <v>8</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="86"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="82"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="41" t="s">
@@ -4084,16 +4093,16 @@
         <v>32</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -4106,24 +4115,24 @@
         <v>51</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="19"/>
       <c r="E5" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="19"/>
@@ -4131,23 +4140,23 @@
     <row r="6" spans="1:13">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -4169,147 +4178,147 @@
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="123" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="124"/>
+      <c r="E8" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="90"/>
+      <c r="M8" s="130"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="127"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="93"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="1:13" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="E10" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="83"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="102"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="51"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="93"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="123" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="83"/>
+      <c r="E12" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A13" s="126"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="93"/>
+        <v>118</v>
+      </c>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="131" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -4318,87 +4327,87 @@
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
       <c r="E14" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="H14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="J14" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>114</v>
-      </c>
       <c r="K14" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="87"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="61"/>
       <c r="E15" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="63"/>
       <c r="M15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
       <c r="E16" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" s="54"/>
       <c r="M16" s="56"/>
@@ -4408,6 +4417,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="I8:I9"/>
@@ -4423,39 +4464,7 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
